--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rahul\Desktop\Projects\Ai-Powered-Customer-Segmentation\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rahul\Desktop\Projects\Ai-Powered-Customer-Segmentation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB20503-32B9-4CAE-BA48-297DC5AE0D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF96BC7-0202-4CF1-A311-F720BA99A922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -514,7 +514,7 @@
         <v>3.39</v>
       </c>
       <c r="G3" s="1">
-        <v>17850</v>
+        <v>17050</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>10</v>
@@ -540,7 +540,7 @@
         <v>2.75</v>
       </c>
       <c r="G4" s="1">
-        <v>17850</v>
+        <v>17670</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>10</v>
@@ -592,7 +592,7 @@
         <v>3.39</v>
       </c>
       <c r="G6" s="1">
-        <v>17850</v>
+        <v>38450</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>10</v>
@@ -618,7 +618,7 @@
         <v>7.65</v>
       </c>
       <c r="G7" s="1">
-        <v>17850</v>
+        <v>7850</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>10</v>
